--- a/public/uploads/Students_Import_Sheet.xlsx
+++ b/public/uploads/Students_Import_Sheet.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Students!$A$1:$Y$58</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Student_Number</t>
   </si>
@@ -47,6 +50,54 @@
   </si>
   <si>
     <t>Course:</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>Civil_Status</t>
+  </si>
+  <si>
+    <t>Date_of_Birth</t>
+  </si>
+  <si>
+    <t>Place_of_Birth</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Elementary_School</t>
+  </si>
+  <si>
+    <t>Elem_Year_Graduated</t>
+  </si>
+  <si>
+    <t>High_School</t>
+  </si>
+  <si>
+    <t>HS_Year_Graduated</t>
+  </si>
+  <si>
+    <t>School_Last_Attended</t>
+  </si>
+  <si>
+    <t>School_Address</t>
+  </si>
+  <si>
+    <t>Year_Graduated</t>
+  </si>
+  <si>
+    <t>College_Degree</t>
+  </si>
+  <si>
+    <t>College_Year_Graudated</t>
   </si>
 </sst>
 </file>
@@ -120,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -167,13 +218,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +298,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,26 +613,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="38.85546875" customWidth="1"/>
     <col min="8" max="8" width="27.42578125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" customWidth="1"/>
+    <col min="16" max="16" width="28.85546875" customWidth="1"/>
+    <col min="17" max="17" width="33.7109375" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" customWidth="1"/>
+    <col min="20" max="22" width="26.28515625" customWidth="1"/>
+    <col min="23" max="23" width="26" customWidth="1"/>
+    <col min="24" max="24" width="22.85546875" customWidth="1"/>
+    <col min="25" max="25" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -565,7 +659,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -576,7 +670,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -587,7 +681,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -598,7 +692,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="11" t="s">
         <v>10</v>
@@ -613,7 +707,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="11"/>
       <c r="C6" s="7"/>
@@ -624,7 +718,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
@@ -635,7 +729,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -661,8 +755,63 @@
       <c r="I8" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -674,8 +823,31 @@
       <c r="G9" s="4"/>
       <c r="H9" s="13"/>
       <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -687,8 +859,31 @@
       <c r="G10" s="4"/>
       <c r="H10" s="13"/>
       <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -700,8 +895,31 @@
       <c r="G11" s="4"/>
       <c r="H11" s="13"/>
       <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -713,8 +931,31 @@
       <c r="G12" s="4"/>
       <c r="H12" s="13"/>
       <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -726,8 +967,31 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>6</v>
       </c>
@@ -739,8 +1003,31 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -752,8 +1039,31 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -765,8 +1075,31 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -778,8 +1111,31 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>10</v>
       </c>
@@ -791,8 +1147,31 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>11</v>
       </c>
@@ -804,8 +1183,31 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>12</v>
       </c>
@@ -817,8 +1219,31 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>13</v>
       </c>
@@ -830,8 +1255,31 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>14</v>
       </c>
@@ -843,8 +1291,31 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -856,8 +1327,31 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>16</v>
       </c>
@@ -869,8 +1363,31 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>17</v>
       </c>
@@ -882,8 +1399,31 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>18</v>
       </c>
@@ -895,8 +1435,31 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>19</v>
       </c>
@@ -908,8 +1471,31 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>20</v>
       </c>
@@ -921,8 +1507,31 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>21</v>
       </c>
@@ -934,8 +1543,31 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>22</v>
       </c>
@@ -947,8 +1579,31 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>23</v>
       </c>
@@ -960,8 +1615,31 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>24</v>
       </c>
@@ -973,8 +1651,31 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -986,8 +1687,31 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>26</v>
       </c>
@@ -999,8 +1723,31 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>27</v>
       </c>
@@ -1012,8 +1759,31 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>28</v>
       </c>
@@ -1025,8 +1795,31 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>29</v>
       </c>
@@ -1038,8 +1831,31 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>30</v>
       </c>
@@ -1051,8 +1867,31 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>31</v>
       </c>
@@ -1064,8 +1903,31 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>32</v>
       </c>
@@ -1077,8 +1939,31 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>33</v>
       </c>
@@ -1090,8 +1975,31 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>34</v>
       </c>
@@ -1103,8 +2011,31 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>35</v>
       </c>
@@ -1116,8 +2047,31 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>36</v>
       </c>
@@ -1129,8 +2083,31 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>37</v>
       </c>
@@ -1142,8 +2119,31 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>38</v>
       </c>
@@ -1155,8 +2155,31 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>39</v>
       </c>
@@ -1168,8 +2191,31 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>40</v>
       </c>
@@ -1181,8 +2227,31 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>41</v>
       </c>
@@ -1194,8 +2263,31 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>42</v>
       </c>
@@ -1207,8 +2299,31 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43</v>
       </c>
@@ -1220,8 +2335,31 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>44</v>
       </c>
@@ -1233,8 +2371,31 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>45</v>
       </c>
@@ -1246,8 +2407,31 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>46</v>
       </c>
@@ -1259,8 +2443,31 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>47</v>
       </c>
@@ -1272,8 +2479,31 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>48</v>
       </c>
@@ -1285,8 +2515,31 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>49</v>
       </c>
@@ -1298,8 +2551,31 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>50</v>
       </c>
@@ -1311,38 +2587,70 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1397,6 +2705,6 @@
     <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="39" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="24" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/uploads/Students_Import_Sheet.xlsx
+++ b/public/uploads/Students_Import_Sheet.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Students" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Students!$A$1:$Y$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Students!$A$1:$X$58</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Student_Number</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Civil_Status</t>
-  </si>
-  <si>
-    <t>Date_of_Birth</t>
   </si>
   <si>
     <t>Place_of_Birth</t>
@@ -246,7 +243,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,6 +282,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,13 +301,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG71"/>
+  <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,68 +628,67 @@
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
-    <col min="15" max="15" width="26.7109375" customWidth="1"/>
-    <col min="16" max="16" width="28.85546875" customWidth="1"/>
-    <col min="17" max="17" width="33.7109375" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.28515625" customWidth="1"/>
-    <col min="20" max="22" width="26.28515625" customWidth="1"/>
-    <col min="23" max="23" width="26" customWidth="1"/>
-    <col min="24" max="24" width="22.85546875" customWidth="1"/>
-    <col min="25" max="25" width="27" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" customWidth="1"/>
+    <col min="16" max="16" width="33.7109375" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" customWidth="1"/>
+    <col min="19" max="21" width="26.28515625" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" customWidth="1"/>
+    <col min="24" max="24" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
       <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
@@ -701,35 +696,35 @@
       <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
       <c r="B6" s="11"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -786,32 +781,29 @@
         <v>20</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z8" s="22"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -823,31 +815,30 @@
       <c r="G9" s="4"/>
       <c r="H9" s="13"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="22"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -859,31 +850,30 @@
       <c r="G10" s="4"/>
       <c r="H10" s="13"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="22"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -895,31 +885,30 @@
       <c r="G11" s="4"/>
       <c r="H11" s="13"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="22"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -931,31 +920,30 @@
       <c r="G12" s="4"/>
       <c r="H12" s="13"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="22"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -967,31 +955,30 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="22"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>6</v>
       </c>
@@ -1003,31 +990,30 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="22"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -1039,31 +1025,30 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="22"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -1075,31 +1060,30 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="22"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -1111,31 +1095,30 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="22"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>10</v>
       </c>
@@ -1147,31 +1130,30 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="22"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>11</v>
       </c>
@@ -1183,31 +1165,30 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="22"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>12</v>
       </c>
@@ -1219,31 +1200,30 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="22"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>13</v>
       </c>
@@ -1255,31 +1235,30 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="22"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>14</v>
       </c>
@@ -1291,31 +1270,30 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="22"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -1327,31 +1305,30 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="22"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>16</v>
       </c>
@@ -1363,31 +1340,30 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="22"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>17</v>
       </c>
@@ -1399,31 +1375,30 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="22"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>18</v>
       </c>
@@ -1435,31 +1410,30 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="22"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>19</v>
       </c>
@@ -1471,31 +1445,30 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="22"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>20</v>
       </c>
@@ -1507,31 +1480,30 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="22"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>21</v>
       </c>
@@ -1543,31 +1515,30 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="22"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>22</v>
       </c>
@@ -1579,31 +1550,30 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="22"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>23</v>
       </c>
@@ -1615,31 +1585,30 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="22"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>24</v>
       </c>
@@ -1651,31 +1620,30 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="22"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -1687,31 +1655,30 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="22"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>26</v>
       </c>
@@ -1723,31 +1690,30 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="22"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>27</v>
       </c>
@@ -1759,31 +1725,30 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="22"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>28</v>
       </c>
@@ -1795,31 +1760,30 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="22"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>29</v>
       </c>
@@ -1831,31 +1795,30 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="22"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>30</v>
       </c>
@@ -1867,31 +1830,30 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="22"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>31</v>
       </c>
@@ -1903,31 +1865,30 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="22"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>32</v>
       </c>
@@ -1939,31 +1900,30 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="22"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>33</v>
       </c>
@@ -1975,31 +1935,30 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="22"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>34</v>
       </c>
@@ -2011,31 +1970,30 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="22"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>35</v>
       </c>
@@ -2047,31 +2005,30 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="22"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>36</v>
       </c>
@@ -2083,31 +2040,30 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="22"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>37</v>
       </c>
@@ -2119,31 +2075,30 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="22"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>38</v>
       </c>
@@ -2155,31 +2110,30 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="22"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>39</v>
       </c>
@@ -2191,31 +2145,30 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="22"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>40</v>
       </c>
@@ -2227,31 +2180,30 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="19"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="22"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>41</v>
       </c>
@@ -2263,31 +2215,30 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="22"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>42</v>
       </c>
@@ -2299,31 +2250,30 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="22"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43</v>
       </c>
@@ -2335,31 +2285,30 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="22"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>44</v>
       </c>
@@ -2371,31 +2320,30 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="22"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>45</v>
       </c>
@@ -2407,31 +2355,30 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="19"/>
-      <c r="X53" s="19"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="22"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>46</v>
       </c>
@@ -2443,31 +2390,30 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="22"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>47</v>
       </c>
@@ -2479,31 +2425,30 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="22"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>48</v>
       </c>
@@ -2515,31 +2460,30 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
-      <c r="V56" s="19"/>
-      <c r="W56" s="19"/>
-      <c r="X56" s="19"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="22"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>49</v>
       </c>
@@ -2551,31 +2495,30 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="22"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>50</v>
       </c>
@@ -2587,22 +2530,22 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="14"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
@@ -2610,13 +2553,13 @@
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
+      <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
@@ -2624,33 +2567,32 @@
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
-      <c r="AG59" s="3"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>

--- a/public/uploads/Students_Import_Sheet.xlsx
+++ b/public/uploads/Students_Import_Sheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886F21DC-5161-40B5-BE92-E60D728B6C39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8985"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Student_Number</t>
   </si>
@@ -41,15 +42,6 @@
   </si>
   <si>
     <t>Birthday</t>
-  </si>
-  <si>
-    <t>CIT COLLEGES OF PANIQUI FOUNDATION INC.</t>
-  </si>
-  <si>
-    <t>Academic Year:</t>
-  </si>
-  <si>
-    <t>Course:</t>
   </si>
   <si>
     <t>Nationality</t>
@@ -96,11 +88,14 @@
   <si>
     <t>College_Year_Graudated</t>
   </si>
+  <si>
+    <t>Mayantoc High School</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,6 +393,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -433,6 +445,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -608,42 +637,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.453125" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" customWidth="1"/>
-    <col min="16" max="16" width="33.7109375" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" customWidth="1"/>
-    <col min="19" max="21" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
+    <col min="12" max="12" width="29.26953125" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" customWidth="1"/>
+    <col min="14" max="14" width="26.7265625" customWidth="1"/>
+    <col min="15" max="15" width="28.81640625" customWidth="1"/>
+    <col min="16" max="16" width="33.7265625" customWidth="1"/>
+    <col min="17" max="17" width="25.26953125" customWidth="1"/>
+    <col min="18" max="18" width="19.26953125" customWidth="1"/>
+    <col min="19" max="21" width="26.26953125" customWidth="1"/>
     <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" customWidth="1"/>
+    <col min="23" max="23" width="22.81640625" customWidth="1"/>
     <col min="24" max="24" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -654,7 +683,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -665,7 +694,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -676,7 +705,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -687,22 +716,18 @@
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21"/>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21"/>
       <c r="B6" s="11"/>
       <c r="C6" s="7"/>
@@ -713,7 +738,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
@@ -724,7 +749,7 @@
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -751,49 +776,49 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="T8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="X8" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>23</v>
       </c>
       <c r="Y8" s="16"/>
       <c r="Z8" s="3"/>
@@ -803,7 +828,7 @@
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -838,7 +863,7 @@
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -873,7 +898,7 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -908,7 +933,7 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -943,7 +968,7 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -978,7 +1003,7 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>6</v>
       </c>
@@ -1013,7 +1038,7 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -1048,7 +1073,7 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -1083,7 +1108,7 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -1118,7 +1143,7 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>10</v>
       </c>
@@ -1153,7 +1178,7 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>11</v>
       </c>
@@ -1188,7 +1213,7 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>12</v>
       </c>
@@ -1223,7 +1248,7 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>13</v>
       </c>
@@ -1258,7 +1283,7 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>14</v>
       </c>
@@ -1293,7 +1318,7 @@
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -1328,7 +1353,7 @@
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>16</v>
       </c>
@@ -1363,7 +1388,7 @@
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>17</v>
       </c>
@@ -1398,7 +1423,7 @@
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>18</v>
       </c>
@@ -1433,7 +1458,7 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>19</v>
       </c>
@@ -1468,7 +1493,7 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>20</v>
       </c>
@@ -1503,7 +1528,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>21</v>
       </c>
@@ -1538,7 +1563,7 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>22</v>
       </c>
@@ -1573,7 +1598,7 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>23</v>
       </c>
@@ -1608,7 +1633,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>24</v>
       </c>
@@ -1643,7 +1668,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
@@ -1678,7 +1703,7 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>26</v>
       </c>
@@ -1713,7 +1738,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>27</v>
       </c>
@@ -1748,7 +1773,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>28</v>
       </c>
@@ -1783,7 +1808,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>29</v>
       </c>
@@ -1818,7 +1843,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>30</v>
       </c>
@@ -1853,7 +1878,7 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>31</v>
       </c>
@@ -1888,7 +1913,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>32</v>
       </c>
@@ -1923,7 +1948,7 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>33</v>
       </c>
@@ -1958,7 +1983,7 @@
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>34</v>
       </c>
@@ -1993,7 +2018,7 @@
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>35</v>
       </c>
@@ -2028,7 +2053,7 @@
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>36</v>
       </c>
@@ -2063,7 +2088,7 @@
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>37</v>
       </c>
@@ -2098,7 +2123,7 @@
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>38</v>
       </c>
@@ -2133,7 +2158,7 @@
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>39</v>
       </c>
@@ -2168,7 +2193,7 @@
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>40</v>
       </c>
@@ -2203,7 +2228,7 @@
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>41</v>
       </c>
@@ -2238,7 +2263,7 @@
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>42</v>
       </c>
@@ -2273,7 +2298,7 @@
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>43</v>
       </c>
@@ -2308,7 +2333,7 @@
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>44</v>
       </c>
@@ -2343,7 +2368,7 @@
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>45</v>
       </c>
@@ -2378,7 +2403,7 @@
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>46</v>
       </c>
@@ -2413,7 +2438,7 @@
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>47</v>
       </c>
@@ -2448,7 +2473,7 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>48</v>
       </c>
@@ -2483,7 +2508,7 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>49</v>
       </c>
@@ -2518,7 +2543,7 @@
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>50</v>
       </c>
@@ -2554,7 +2579,7 @@
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2568,73 +2593,73 @@
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>

--- a/public/uploads/Students_Import_Sheet.xlsx
+++ b/public/uploads/Students_Import_Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886F21DC-5161-40B5-BE92-E60D728B6C39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B045CCF-0854-4C11-B7D0-DEBD3BCBABF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,14 +11,14 @@
     <sheet name="Students" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Students!$A$1:$X$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Students!$A$1:$S$58</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Student_Number</t>
   </si>
@@ -72,21 +72,6 @@
   </si>
   <si>
     <t>HS_Year_Graduated</t>
-  </si>
-  <si>
-    <t>School_Last_Attended</t>
-  </si>
-  <si>
-    <t>School_Address</t>
-  </si>
-  <si>
-    <t>Year_Graduated</t>
-  </si>
-  <si>
-    <t>College_Degree</t>
-  </si>
-  <si>
-    <t>College_Year_Graudated</t>
   </si>
   <si>
     <t>Mayantoc High School</t>
@@ -163,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -210,35 +195,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,20 +219,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,25 +229,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -671,83 +632,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="A1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -760,19 +721,19 @@
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -805,22 +766,12 @@
       <c r="S8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y8" s="16"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -836,26 +787,26 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="12"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="16"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -871,26 +822,26 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="16"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -906,26 +857,26 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="16"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -941,26 +892,26 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="16"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -980,22 +931,22 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="16"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
@@ -1015,22 +966,22 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="16"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
@@ -1050,22 +1001,22 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="16"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -1085,22 +1036,22 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="16"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
@@ -1120,22 +1071,22 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="16"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
@@ -1155,22 +1106,22 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="16"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -1190,22 +1141,22 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="16"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
@@ -1225,22 +1176,22 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="16"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
@@ -1260,22 +1211,22 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="16"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
@@ -1295,22 +1246,22 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="16"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -1330,22 +1281,22 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="16"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
@@ -1365,22 +1316,22 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="16"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
@@ -1400,22 +1351,22 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="16"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -1435,22 +1386,22 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="16"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
@@ -1470,22 +1421,22 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="16"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
@@ -1505,22 +1456,22 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="16"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
@@ -1540,22 +1491,22 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="16"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
@@ -1575,22 +1526,22 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="16"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
@@ -1610,22 +1561,22 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="16"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
@@ -1645,22 +1596,22 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="16"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
@@ -1680,22 +1631,22 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="16"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
@@ -1715,22 +1666,22 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="16"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
@@ -1750,22 +1701,22 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="15"/>
-      <c r="Y35" s="16"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
@@ -1785,22 +1736,22 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="16"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
@@ -1820,22 +1771,22 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="16"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
@@ -1855,22 +1806,22 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="16"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
@@ -1890,22 +1841,22 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="16"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
@@ -1925,22 +1876,22 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="16"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
@@ -1960,22 +1911,22 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="16"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
@@ -1995,22 +1946,22 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="16"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
@@ -2030,22 +1981,22 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="16"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
@@ -2065,22 +2016,22 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="16"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
@@ -2100,22 +2051,22 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="16"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
@@ -2135,22 +2086,22 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="16"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
@@ -2170,22 +2121,22 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="16"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
@@ -2205,22 +2156,22 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="16"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
@@ -2240,22 +2191,22 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="16"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
@@ -2275,22 +2226,22 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="16"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
@@ -2310,22 +2261,22 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="15"/>
-      <c r="Y51" s="16"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
@@ -2345,22 +2296,22 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="16"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
@@ -2380,22 +2331,22 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="16"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
@@ -2415,22 +2366,22 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="16"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
@@ -2450,22 +2401,22 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="16"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
@@ -2485,22 +2436,22 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="15"/>
-      <c r="Y56" s="16"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
@@ -2520,22 +2471,22 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="16"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
@@ -2555,21 +2506,21 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="14"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>

--- a/public/uploads/Students_Import_Sheet.xlsx
+++ b/public/uploads/Students_Import_Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B045CCF-0854-4C11-B7D0-DEBD3BCBABF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2D32A8-528E-4192-B4CC-366A27EA290F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,17 +11,22 @@
     <sheet name="Students" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Students!$A$1:$S$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Students!$A$1:$R$58</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Student_Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Lastname</t>
   </si>
@@ -68,13 +73,13 @@
     <t>Elem_Year_Graduated</t>
   </si>
   <si>
-    <t>High_School</t>
+    <t>Mayantoc High School</t>
   </si>
   <si>
-    <t>HS_Year_Graduated</t>
+    <t>ESC</t>
   </si>
   <si>
-    <t>Mayantoc High School</t>
+    <t>LRN</t>
   </si>
 </sst>
 </file>
@@ -201,7 +206,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,19 +234,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -250,14 +246,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -599,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AG71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,187 +619,200 @@
     <col min="2" max="2" width="26.81640625" customWidth="1"/>
     <col min="3" max="3" width="36.453125" customWidth="1"/>
     <col min="4" max="4" width="36.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="38.81640625" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" customWidth="1"/>
-    <col min="12" max="12" width="29.26953125" customWidth="1"/>
-    <col min="13" max="13" width="19.54296875" customWidth="1"/>
-    <col min="14" max="14" width="26.7265625" customWidth="1"/>
-    <col min="15" max="15" width="28.81640625" customWidth="1"/>
-    <col min="16" max="16" width="33.7265625" customWidth="1"/>
-    <col min="17" max="17" width="25.26953125" customWidth="1"/>
-    <col min="18" max="18" width="19.26953125" customWidth="1"/>
-    <col min="19" max="21" width="26.26953125" customWidth="1"/>
-    <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="23" max="23" width="22.81640625" customWidth="1"/>
-    <col min="24" max="24" width="27" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="38.81640625" customWidth="1"/>
+    <col min="9" max="9" width="27.453125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="29.26953125" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" customWidth="1"/>
+    <col min="15" max="15" width="26.7265625" customWidth="1"/>
+    <col min="16" max="16" width="28.81640625" customWidth="1"/>
+    <col min="17" max="17" width="33.7265625" customWidth="1"/>
+    <col min="18" max="18" width="25.26953125" customWidth="1"/>
+    <col min="19" max="19" width="19.26953125" customWidth="1"/>
+    <col min="20" max="22" width="26.26953125" customWidth="1"/>
+    <col min="23" max="23" width="26" customWidth="1"/>
+    <col min="24" max="24" width="22.81640625" customWidth="1"/>
+    <col min="25" max="25" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="3"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="10"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -800,7 +821,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
@@ -813,20 +834,21 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="10"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -835,7 +857,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -848,20 +870,21 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="10"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -870,7 +893,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
@@ -883,20 +906,21 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>4</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -905,7 +929,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+      <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -918,20 +942,21 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF12" s="3"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>5</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="10"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -940,7 +965,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
+      <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -953,20 +978,21 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF13" s="3"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>6</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -975,7 +1001,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -988,20 +1014,21 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF14" s="3"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>7</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -1010,7 +1037,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -1023,20 +1050,21 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF15" s="3"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>8</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="10"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -1045,7 +1073,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -1058,20 +1086,21 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>9</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="10"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -1080,7 +1109,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -1093,20 +1122,21 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF17" s="3"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>10</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -1115,7 +1145,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -1128,20 +1158,21 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF18" s="3"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>11</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="10"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
@@ -1150,7 +1181,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -1163,20 +1194,21 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>12</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="10"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
@@ -1185,7 +1217,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -1198,20 +1230,21 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF20" s="3"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>13</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="10"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -1220,7 +1253,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
@@ -1233,20 +1266,21 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF21" s="3"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>14</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="10"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -1255,7 +1289,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -1268,20 +1302,21 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF22" s="3"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>15</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -1290,7 +1325,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -1303,20 +1338,21 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF23" s="3"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>16</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="10"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -1325,7 +1361,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
+      <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -1338,20 +1374,21 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF24" s="3"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>17</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="10"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -1360,7 +1397,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
+      <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
@@ -1373,20 +1410,21 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF25" s="3"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>18</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -1395,7 +1433,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -1408,20 +1446,21 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF26" s="3"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>19</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="10"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -1430,7 +1469,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
+      <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
@@ -1443,20 +1482,21 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF27" s="3"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>20</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="10"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -1465,7 +1505,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
+      <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -1478,20 +1518,21 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF28" s="3"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>21</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="10"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -1500,7 +1541,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
+      <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
@@ -1513,20 +1554,21 @@
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF29" s="3"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>22</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="10"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -1535,7 +1577,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -1548,20 +1590,21 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF30" s="3"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>23</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="10"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
@@ -1570,7 +1613,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
+      <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
@@ -1583,20 +1626,21 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF31" s="3"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>24</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="10"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -1605,7 +1649,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
+      <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -1618,20 +1662,21 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF32" s="3"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="10"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
@@ -1640,7 +1685,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
+      <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
@@ -1653,20 +1698,21 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF33" s="3"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>26</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="10"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
@@ -1675,7 +1721,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
+      <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -1688,20 +1734,21 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF34" s="3"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>27</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="10"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
@@ -1710,7 +1757,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
+      <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
@@ -1723,20 +1770,21 @@
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF35" s="3"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>28</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="10"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -1745,7 +1793,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
+      <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -1758,20 +1806,21 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF36" s="3"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>29</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="10"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -1780,7 +1829,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
+      <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -1793,20 +1842,21 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF37" s="3"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>30</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="10"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -1815,7 +1865,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
+      <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -1828,20 +1878,21 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF38" s="3"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>31</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="10"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -1850,7 +1901,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
+      <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
@@ -1863,20 +1914,21 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>32</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="10"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -1885,7 +1937,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -1898,20 +1950,21 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>33</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="10"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -1920,7 +1973,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
+      <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
@@ -1933,20 +1986,21 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF41" s="3"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>34</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="10"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -1955,7 +2009,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
+      <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -1968,20 +2022,21 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF42" s="3"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>35</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="10"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -1990,7 +2045,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
+      <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
@@ -2003,20 +2058,21 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF43" s="3"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>36</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="10"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
@@ -2025,7 +2081,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
+      <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -2038,20 +2094,21 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF44" s="3"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>37</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="10"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
@@ -2060,7 +2117,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
+      <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -2073,20 +2130,21 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF45" s="3"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>38</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="10"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -2095,7 +2153,7 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
+      <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -2108,20 +2166,21 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF46" s="3"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>39</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="10"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -2130,7 +2189,7 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
+      <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
@@ -2143,20 +2202,21 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AF47" s="3"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>40</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="6"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="10"/>
+      <c r="J48" s="4"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -2165,7 +2225,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
+      <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -2178,20 +2238,21 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AF48" s="3"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>41</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="6"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="10"/>
+      <c r="J49" s="4"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -2200,7 +2261,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
+      <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
@@ -2213,20 +2274,21 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AF49" s="3"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>42</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="6"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="10"/>
+      <c r="J50" s="4"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
@@ -2235,7 +2297,7 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
+      <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -2248,20 +2310,21 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AF50" s="3"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>43</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="6"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="10"/>
+      <c r="J51" s="4"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -2270,7 +2333,7 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
+      <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
@@ -2283,20 +2346,21 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AF51" s="3"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>44</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="10"/>
+      <c r="J52" s="4"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -2305,7 +2369,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
+      <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -2318,20 +2382,21 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AF52" s="3"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>45</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="6"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="10"/>
+      <c r="J53" s="4"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
@@ -2340,7 +2405,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
+      <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
@@ -2353,20 +2418,21 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AF53" s="3"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>46</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="10"/>
+      <c r="J54" s="4"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
@@ -2375,7 +2441,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
+      <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -2388,20 +2454,21 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AF54" s="3"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>47</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="4"/>
+      <c r="E55" s="6"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="10"/>
+      <c r="J55" s="4"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
@@ -2410,7 +2477,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
+      <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
@@ -2423,20 +2490,21 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>48</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="6"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="10"/>
+      <c r="J56" s="4"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
@@ -2445,7 +2513,7 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
+      <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -2458,20 +2526,21 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>49</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="4"/>
+      <c r="E57" s="6"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="10"/>
+      <c r="J57" s="4"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
@@ -2480,7 +2549,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
+      <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
@@ -2493,20 +2562,21 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AF57" s="3"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>50</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="6"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="10"/>
+      <c r="J58" s="4"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
@@ -2515,7 +2585,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
+      <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -2529,13 +2599,14 @@
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG58" s="3"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="Y59" s="3"/>
+      <c r="E59" s="3"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
@@ -2543,83 +2614,96 @@
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG59" s="3"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D4"/>
-    <mergeCell ref="E1:I7"/>
+    <mergeCell ref="F1:J7"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/uploads/Students_Import_Sheet.xlsx
+++ b/public/uploads/Students_Import_Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2D32A8-528E-4192-B4CC-366A27EA290F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379EE947-CC90-4903-A639-FF871277DA13}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Students" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Students!$A$1:$R$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Students!$A$1:$Q$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Lastname</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Mayantoc High School</t>
-  </si>
-  <si>
-    <t>ESC</t>
   </si>
   <si>
     <t>LRN</t>
@@ -206,7 +203,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,9 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG71"/>
+  <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -619,123 +613,115 @@
     <col min="2" max="2" width="26.81640625" customWidth="1"/>
     <col min="3" max="3" width="36.453125" customWidth="1"/>
     <col min="4" max="4" width="36.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="38.81640625" customWidth="1"/>
-    <col min="9" max="9" width="27.453125" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" customWidth="1"/>
-    <col min="13" max="13" width="29.26953125" customWidth="1"/>
-    <col min="14" max="14" width="19.54296875" customWidth="1"/>
-    <col min="15" max="15" width="26.7265625" customWidth="1"/>
-    <col min="16" max="16" width="28.81640625" customWidth="1"/>
-    <col min="17" max="17" width="33.7265625" customWidth="1"/>
-    <col min="18" max="18" width="25.26953125" customWidth="1"/>
-    <col min="19" max="19" width="19.26953125" customWidth="1"/>
-    <col min="20" max="22" width="26.26953125" customWidth="1"/>
-    <col min="23" max="23" width="26" customWidth="1"/>
-    <col min="24" max="24" width="22.81640625" customWidth="1"/>
-    <col min="25" max="25" width="27" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="38.81640625" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" customWidth="1"/>
+    <col min="12" max="12" width="29.26953125" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" customWidth="1"/>
+    <col min="14" max="14" width="26.7265625" customWidth="1"/>
+    <col min="15" max="15" width="28.81640625" customWidth="1"/>
+    <col min="16" max="16" width="33.7265625" customWidth="1"/>
+    <col min="17" max="17" width="25.26953125" customWidth="1"/>
+    <col min="18" max="18" width="19.26953125" customWidth="1"/>
+    <col min="19" max="21" width="26.26953125" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
+    <col min="23" max="23" width="22.81640625" customWidth="1"/>
+    <col min="24" max="24" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:31" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+    </row>
+    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+    </row>
+    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
@@ -743,76 +729,73 @@
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
+      <c r="E8" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
+      <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -820,7 +803,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -834,21 +817,20 @@
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -856,7 +838,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
+      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -870,21 +852,20 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -892,7 +873,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -906,21 +887,20 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>4</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -928,7 +908,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -942,21 +922,20 @@
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>5</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -964,7 +943,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+      <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -978,21 +957,20 @@
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>6</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -1000,7 +978,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
+      <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -1014,21 +992,20 @@
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>7</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -1036,7 +1013,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -1050,21 +1027,20 @@
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>8</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -1072,7 +1048,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -1086,21 +1062,20 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>9</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -1108,7 +1083,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -1122,21 +1097,20 @@
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>10</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -1144,7 +1118,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
+      <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -1158,21 +1132,20 @@
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>11</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
@@ -1180,7 +1153,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
+      <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -1194,21 +1167,20 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>12</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
@@ -1216,7 +1188,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
+      <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -1230,21 +1202,20 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>13</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
@@ -1252,7 +1223,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -1266,21 +1237,20 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>14</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -1288,7 +1258,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
+      <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -1302,21 +1272,20 @@
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>15</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -1324,7 +1293,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
+      <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -1338,21 +1307,20 @@
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>16</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -1360,7 +1328,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
+      <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -1374,21 +1342,20 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>17</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
@@ -1396,7 +1363,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
+      <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -1410,21 +1377,20 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>18</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
@@ -1432,7 +1398,7 @@
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
+      <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -1446,21 +1412,20 @@
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>19</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
@@ -1468,7 +1433,7 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
+      <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -1482,21 +1447,20 @@
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>20</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
@@ -1504,7 +1468,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
+      <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -1518,21 +1482,20 @@
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>21</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
@@ -1540,7 +1503,7 @@
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
+      <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -1554,21 +1517,20 @@
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>22</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -1576,7 +1538,7 @@
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
+      <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -1590,21 +1552,20 @@
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>23</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
@@ -1612,7 +1573,7 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
+      <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -1626,21 +1587,20 @@
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>24</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
@@ -1648,7 +1608,7 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
+      <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -1662,21 +1622,20 @@
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>25</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
@@ -1684,7 +1643,7 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
+      <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -1698,21 +1657,20 @@
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>26</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
@@ -1720,7 +1678,7 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
+      <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
@@ -1734,21 +1692,20 @@
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>27</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
@@ -1756,7 +1713,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
+      <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -1770,21 +1727,20 @@
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>28</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -1792,7 +1748,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
+      <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
@@ -1806,21 +1762,20 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>29</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -1828,7 +1783,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
@@ -1842,21 +1797,20 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>30</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -1864,7 +1818,7 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
+      <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -1878,21 +1832,20 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>31</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -1900,7 +1853,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
+      <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
@@ -1914,21 +1867,20 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>32</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -1936,7 +1888,7 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
+      <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
@@ -1950,21 +1902,20 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>33</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -1972,7 +1923,7 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
+      <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
@@ -1986,21 +1937,20 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>34</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -2008,7 +1958,7 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
+      <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
@@ -2022,21 +1972,20 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>35</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -2044,7 +1993,7 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
+      <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
@@ -2058,21 +2007,20 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>36</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
@@ -2080,7 +2028,7 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
+      <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -2094,21 +2042,20 @@
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>37</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
@@ -2116,7 +2063,7 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
+      <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
@@ -2130,21 +2077,20 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>38</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
@@ -2152,7 +2098,7 @@
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
+      <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
@@ -2166,21 +2112,20 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>39</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
@@ -2188,7 +2133,7 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
+      <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
@@ -2202,21 +2147,20 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>40</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
@@ -2224,7 +2168,7 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
+      <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
@@ -2238,21 +2182,20 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>41</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="J49" s="10"/>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
@@ -2260,7 +2203,7 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
+      <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
@@ -2274,21 +2217,20 @@
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>42</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="J50" s="10"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
@@ -2296,7 +2238,7 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
+      <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
@@ -2310,21 +2252,20 @@
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
       <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>43</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="J51" s="10"/>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -2332,7 +2273,7 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
+      <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
@@ -2346,21 +2287,20 @@
       <c r="AC51" s="3"/>
       <c r="AD51" s="3"/>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>44</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="J52" s="10"/>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
@@ -2368,7 +2308,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
+      <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
@@ -2382,21 +2322,20 @@
       <c r="AC52" s="3"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>45</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
@@ -2404,7 +2343,7 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
+      <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
@@ -2418,21 +2357,20 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>46</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="J54" s="10"/>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
@@ -2440,7 +2378,7 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
+      <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
@@ -2454,21 +2392,20 @@
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>47</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="J55" s="10"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
@@ -2476,7 +2413,7 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
+      <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
@@ -2490,21 +2427,20 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>48</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="J56" s="10"/>
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
@@ -2512,7 +2448,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
+      <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
@@ -2526,21 +2462,20 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>49</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="J57" s="10"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
@@ -2548,7 +2483,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
+      <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
@@ -2562,21 +2497,20 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>50</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="J58" s="10"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
@@ -2584,7 +2518,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
+      <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
@@ -2599,14 +2533,13 @@
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
@@ -2614,96 +2547,83 @@
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
-      <c r="AG59" s="3"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D4"/>
-    <mergeCell ref="F1:J7"/>
+    <mergeCell ref="E1:I7"/>
     <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
